--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>spuId</t>
   </si>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>20037#139;20002#6;20001#3;20004#16;20012#45;20005#18;20006#21;20035#114;20013#47;20003#10;20011#43</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20037#129;20002#6;20001#2;20004#16;20012#45;20005#19;20006#21;20035#114;20013#47;20003#10;20011#43</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -108,21 +112,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -426,11 +420,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="128" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="128" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25">
@@ -448,7 +442,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>10283</v>
       </c>
       <c r="B2" s="3">
@@ -462,7 +456,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10284</v>
       </c>
       <c r="B3" s="3">
@@ -473,6 +467,17 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
+      <c r="A4" s="2">
+        <v>10283</v>
+      </c>
+      <c r="B4" s="3">
+        <v>91759181</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -505,5 +510,6 @@
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>